--- a/fuentes/contenidos/grado10/guion01/SolicitudGraficaMA_10_01_REC270.xlsx
+++ b/fuentes/contenidos/grado10/guion01/SolicitudGraficaMA_10_01_REC270.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lzambrano\Desktop\Nueva carpeta (4)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lzambrano\Documents\GitHub\Matematicas\fuentes\contenidos\grado10\guion01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="hX79YNGfHMUCcosWMoH0GQuhNo2gkebFrfW3do2TOcvwqaujU9m0uwOL5UkRtWEspAy/ISD2JB8+jf057W9mVA==" workbookSaltValue="uRz/CDpmZ5ecKheoN1C0Jw==" workbookSpinCount="100000" lockStructure="1"/>
@@ -608,9 +608,6 @@
     <t>imagen de una funcion trigonometrica</t>
   </si>
   <si>
-    <t>tabla de una funcion lineal</t>
-  </si>
-  <si>
     <t>Imagen de una funcion a trozos</t>
   </si>
   <si>
@@ -620,9 +617,6 @@
     <t>funcion logaritmo natural</t>
   </si>
   <si>
-    <t>ejemplo de una funcion radical</t>
-  </si>
-  <si>
     <t>imagen de funcion racional</t>
   </si>
   <si>
@@ -630,6 +624,12 @@
   </si>
   <si>
     <t>lizzie zambrano</t>
+  </si>
+  <si>
+    <t>tabla de una funcion lineal. Texto digitado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ejemplo de una funcion radical </t>
   </si>
 </sst>
 </file>
@@ -1920,15 +1920,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:colOff>999067</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>3325282</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>3543300</xdr:colOff>
+      <xdr:colOff>3818467</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>3709446</xdr:rowOff>
+      <xdr:rowOff>3529529</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1946,7 +1946,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="17106900" y="7181849"/>
+          <a:off x="17360900" y="6965949"/>
           <a:ext cx="2819400" cy="3633247"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2092,46 +2092,37 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>625077</xdr:colOff>
+      <xdr:colOff>677334</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>59530</xdr:rowOff>
+      <xdr:rowOff>296047</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>4048124</xdr:colOff>
+      <xdr:colOff>4011084</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>2223525</xdr:rowOff>
+      <xdr:rowOff>2181245</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2058" name="Picture 10"/>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:srcRect l="23918" t="19832" r="36446" b="36538"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="16936640" y="18454686"/>
-          <a:ext cx="3423047" cy="2163995"/>
+          <a:off x="17039167" y="18753380"/>
+          <a:ext cx="3333750" cy="1885198"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2139,46 +2130,37 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>324025</xdr:colOff>
+      <xdr:colOff>709084</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>267889</xdr:rowOff>
+      <xdr:rowOff>377763</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>4405313</xdr:colOff>
+      <xdr:colOff>3926418</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>2946796</xdr:rowOff>
+      <xdr:rowOff>2959827</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2060" name="Picture 12"/>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-        <a:srcRect l="24373" t="29468" r="23918" b="11198"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="16635588" y="21014530"/>
-          <a:ext cx="4081288" cy="2678907"/>
+          <a:off x="17070917" y="21184596"/>
+          <a:ext cx="3217334" cy="2582064"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2186,46 +2168,37 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>267890</xdr:colOff>
+      <xdr:colOff>254001</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>180023</xdr:rowOff>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>4316015</xdr:colOff>
+      <xdr:colOff>4321501</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>2738437</xdr:rowOff>
+      <xdr:rowOff>3946113</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2063" name="Picture 15"/>
+        <xdr:cNvPr id="4" name="Imagen 3"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
-        <a:srcRect l="22779" t="19087" r="20273" b="18085"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="16579453" y="24141351"/>
-          <a:ext cx="4048125" cy="2558414"/>
+          <a:off x="16615834" y="24077083"/>
+          <a:ext cx="4067500" cy="3882613"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2948,9 +2921,9 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="32" zoomScaleNormal="32" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="140" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -3089,7 +3062,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="89" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D5" s="90"/>
       <c r="E5" s="5"/>
@@ -3357,7 +3330,7 @@
         <v>500 x 500 px</v>
       </c>
       <c r="J12" s="64" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="K12" s="64"/>
       <c r="O12" s="2" t="str">
@@ -3400,7 +3373,7 @@
         <v>500 x 500 px</v>
       </c>
       <c r="J13" s="64" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K13" s="64"/>
       <c r="O13" s="2" t="str">
@@ -3443,7 +3416,7 @@
         <v>500 x 500 px</v>
       </c>
       <c r="J14" s="64" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K14"/>
       <c r="O14" s="2" t="str">
@@ -3486,7 +3459,7 @@
         <v>500 x 500 px</v>
       </c>
       <c r="J15" s="66" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K15" s="66"/>
       <c r="O15" s="2" t="str">
@@ -3529,7 +3502,7 @@
         <v>500 x 500 px</v>
       </c>
       <c r="J16" s="67" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="K16" s="68"/>
       <c r="O16" s="2" t="str">
@@ -3572,7 +3545,7 @@
         <v>500 x 500 px</v>
       </c>
       <c r="J17" s="66" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K17" s="66"/>
       <c r="O17" s="2" t="str">
@@ -3580,7 +3553,7 @@
         <v>F7B</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="11" customFormat="1" ht="227.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" s="11" customFormat="1" ht="336" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG09</v>
@@ -3615,7 +3588,7 @@
         <v>500 x 500 px</v>
       </c>
       <c r="J18" s="66" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K18" s="66"/>
       <c r="O18" s="2" t="str">
